--- a/doc/curation-rewards-old-new-algorithm.xlsx
+++ b/doc/curation-rewards-old-new-algorithm.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t xml:space="preserve">Every voter has the same resources and every vote has the same weight</t>
   </si>
@@ -128,6 +128,12 @@
     <t xml:space="preserve">Simulation 9</t>
   </si>
   <si>
+    <t xml:space="preserve">Simulation 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation 11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Simulation 6 – voting in early window</t>
   </si>
   <si>
@@ -165,6 +171,27 @@
   </si>
   <si>
     <t xml:space="preserve">`curation_reward_tests/basic_test_v6` unit-test → file: 06.content_format.time:curation_reward.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation 10 – voting in early + mid window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`curation_reward_tests/basic_test_v7` unit-test → file: 07.content_format.time:curation_reward.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 voter votes in early window, 49 voters vote in mid window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation 11 – voting in early + mid window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`curation_reward_tests/basic_test_v8` unit-test → file: 08.content_format.time:curation_reward.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 voters vote in early window, 45 voters vote in mid window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum:</t>
   </si>
 </sst>
 </file>
@@ -531,7 +558,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart300.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1573,11 +1600,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="63238692"/>
-        <c:axId val="69542192"/>
+        <c:axId val="7930929"/>
+        <c:axId val="39364400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63238692"/>
+        <c:axId val="7930929"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,12 +1667,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69542192"/>
+        <c:crossAx val="39364400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69542192"/>
+        <c:axId val="39364400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,7 +1745,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63238692"/>
+        <c:crossAx val="7930929"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1745,1061 +1772,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>simulation 8</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'next simulations'!$G$7:$G$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1719</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3438</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5157</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6876</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8595</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10314</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12033</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13752</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15471</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17190</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18909</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20628</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22347</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24066</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25785</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27504</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29223</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30942</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>32661</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>34380</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>36099</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37818</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>39537</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41256</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42975</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44694</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>46413</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>48132</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>49851</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>51570</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>53289</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>55008</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>56727</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>58446</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>60165</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>61884</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>63603</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>65322</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>67041</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>68760</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>70479</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>72198</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>73917</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>75636</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>77355</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>79074</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>80793</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>82512</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>84231</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>85950</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'next simulations'!$H$7:$H$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>805</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="82425844"/>
-        <c:axId val="33957818"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="82425844"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>time[s]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="33957818"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="33957818"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>curation rewards for particular voter</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="82425844"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>simulation 9</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'next simulations'!$J$7:$J$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>90300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90900</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>91500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>91800</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>92400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>92700</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>93000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>93300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>93600</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>93900</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>94200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>94500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>94800</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>95100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>95400</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95700</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>96000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>96300</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>96600</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>96900</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>97200</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>97500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>97800</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>98100</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>98400</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>98700</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>99000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>99300</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>99600</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>99900</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>100200</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>100500</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>100800</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>101100</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>101400</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>101700</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>102000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>102300</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>102600</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>102900</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>103200</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>103500</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>103800</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>104100</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>104400</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>104700</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>105000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'next simulations'!$K$7:$K$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>806</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="48496735"/>
-        <c:axId val="72869604"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="48496735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>time[s]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="72869604"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="72869604"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>curation rewards for particular voter</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="48496735"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart301.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3844,11 +2817,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="667263"/>
-        <c:axId val="18066884"/>
+        <c:axId val="41435101"/>
+        <c:axId val="13936818"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="667263"/>
+        <c:axId val="41435101"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3898,12 +2871,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18066884"/>
+        <c:crossAx val="13936818"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="18066884"/>
+        <c:axId val="13936818"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3962,7 +2935,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667263"/>
+        <c:crossAx val="41435101"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3989,7 +2962,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart302.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4230,11 +3203,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="19461869"/>
-        <c:axId val="68648762"/>
+        <c:axId val="19391492"/>
+        <c:axId val="77006536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19461869"/>
+        <c:axId val="19391492"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4262,12 +3235,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68648762"/>
+        <c:crossAx val="77006536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68648762"/>
+        <c:axId val="77006536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4304,7 +3277,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19461869"/>
+        <c:crossAx val="19391492"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4331,7 +3304,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart303.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4572,11 +3545,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25121775"/>
-        <c:axId val="10078479"/>
+        <c:axId val="91212657"/>
+        <c:axId val="15196056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25121775"/>
+        <c:axId val="91212657"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4604,12 +3577,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10078479"/>
+        <c:crossAx val="15196056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10078479"/>
+        <c:axId val="15196056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4646,7 +3619,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25121775"/>
+        <c:crossAx val="91212657"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4673,7 +3646,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart304.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5715,11 +4688,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="24163134"/>
-        <c:axId val="27335553"/>
+        <c:axId val="55959709"/>
+        <c:axId val="25901338"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="24163134"/>
+        <c:axId val="55959709"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5769,12 +4742,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27335553"/>
+        <c:crossAx val="25901338"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27335553"/>
+        <c:axId val="25901338"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5833,7 +4806,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24163134"/>
+        <c:crossAx val="55959709"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5860,7 +4833,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart305.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6326,11 +5299,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="13056423"/>
-        <c:axId val="76574454"/>
+        <c:axId val="66952592"/>
+        <c:axId val="25793147"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="13056423"/>
+        <c:axId val="66952592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6380,12 +5353,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76574454"/>
+        <c:crossAx val="25793147"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76574454"/>
+        <c:axId val="25793147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6444,7 +5417,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13056423"/>
+        <c:crossAx val="66952592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6471,7 +5444,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart306.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7507,11 +6480,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67358922"/>
-        <c:axId val="8803544"/>
+        <c:axId val="21885971"/>
+        <c:axId val="99928564"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67358922"/>
+        <c:axId val="21885971"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7561,12 +6534,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8803544"/>
+        <c:crossAx val="99928564"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8803544"/>
+        <c:axId val="99928564"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7625,7 +6598,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67358922"/>
+        <c:crossAx val="21885971"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7652,7 +6625,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart307.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7721,154 +6694,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1719</c:v>
+                  <c:v>1731</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3438</c:v>
+                  <c:v>3450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5157</c:v>
+                  <c:v>5169</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6876</c:v>
+                  <c:v>6888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8595</c:v>
+                  <c:v>8607</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10314</c:v>
+                  <c:v>10326</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12033</c:v>
+                  <c:v>12045</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13752</c:v>
+                  <c:v>13764</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15471</c:v>
+                  <c:v>15483</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17190</c:v>
+                  <c:v>17202</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18909</c:v>
+                  <c:v>18921</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20628</c:v>
+                  <c:v>20640</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22347</c:v>
+                  <c:v>22359</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24066</c:v>
+                  <c:v>24078</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25785</c:v>
+                  <c:v>25797</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27504</c:v>
+                  <c:v>27516</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29223</c:v>
+                  <c:v>29235</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30942</c:v>
+                  <c:v>30954</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32661</c:v>
+                  <c:v>32673</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34380</c:v>
+                  <c:v>34392</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36099</c:v>
+                  <c:v>36111</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37818</c:v>
+                  <c:v>37830</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39537</c:v>
+                  <c:v>39549</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41256</c:v>
+                  <c:v>41268</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42975</c:v>
+                  <c:v>42987</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44694</c:v>
+                  <c:v>44706</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>46413</c:v>
+                  <c:v>46425</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48132</c:v>
+                  <c:v>48144</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>49851</c:v>
+                  <c:v>49863</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>51570</c:v>
+                  <c:v>51582</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53289</c:v>
+                  <c:v>53301</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>55008</c:v>
+                  <c:v>55020</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>56727</c:v>
+                  <c:v>56739</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58446</c:v>
+                  <c:v>58458</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60165</c:v>
+                  <c:v>60177</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>61884</c:v>
+                  <c:v>61896</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>63603</c:v>
+                  <c:v>63615</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>65322</c:v>
+                  <c:v>65334</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>67041</c:v>
+                  <c:v>67053</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>68760</c:v>
+                  <c:v>68772</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70479</c:v>
+                  <c:v>70491</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>72198</c:v>
+                  <c:v>72210</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>73917</c:v>
+                  <c:v>73929</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>75636</c:v>
+                  <c:v>75648</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>77355</c:v>
+                  <c:v>77367</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>79074</c:v>
+                  <c:v>79086</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>80793</c:v>
+                  <c:v>80805</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>82512</c:v>
+                  <c:v>82524</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>84231</c:v>
+                  <c:v>84243</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>85950</c:v>
+                  <c:v>85962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8034,11 +7007,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="70339406"/>
-        <c:axId val="35263035"/>
+        <c:axId val="60294736"/>
+        <c:axId val="81323650"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70339406"/>
+        <c:axId val="60294736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8088,12 +7061,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35263035"/>
+        <c:crossAx val="81323650"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35263035"/>
+        <c:axId val="81323650"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8152,7 +7125,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70339406"/>
+        <c:crossAx val="60294736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8179,7 +7152,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart308.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8407,165 +7380,165 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>806</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="39904866"/>
-        <c:axId val="86083440"/>
+        <c:axId val="79275699"/>
+        <c:axId val="38135121"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39904866"/>
+        <c:axId val="79275699"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8615,12 +7588,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86083440"/>
+        <c:crossAx val="38135121"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86083440"/>
+        <c:axId val="38135121"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8679,7 +7652,2111 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39904866"/>
+        <c:crossAx val="79275699"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart309.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>simulation 8</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'next simulations'!$G$7:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1731</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10326</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13764</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15483</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18921</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20640</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22359</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24078</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27516</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29235</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30954</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32673</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34392</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36111</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37830</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39549</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41268</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42987</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44706</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46425</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48144</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49863</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51582</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56739</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>58458</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60177</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61896</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>63615</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65334</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>67053</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>68772</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70491</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>72210</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>73929</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>75648</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>77367</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>79086</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>80805</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82524</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>84243</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>85962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'next simulations'!$H$7:$H$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="71912065"/>
+        <c:axId val="8854372"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="71912065"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>time[s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8854372"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="8854372"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>curation rewards for particular voter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71912065"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart310.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>simulation 9</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'next simulations'!$J$7:$J$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>90300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96300</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96900</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>97800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>98100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>98400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>98700</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99900</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100200</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>101100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>101400</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>101700</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>102000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>102300</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>102600</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>102900</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>103200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>103500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>103800</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>104100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>104400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>104700</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>105000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'next simulations'!$K$7:$K$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="65872731"/>
+        <c:axId val="75027832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="65872731"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>time[s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75027832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75027832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>curation rewards for particular voter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65872731"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart311.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>simulation 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'next simulations'!$M$7:$M$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>86322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87822</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88722</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89322</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89622</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89922</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90222</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90522</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90822</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91422</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91722</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92322</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>92622</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92922</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93222</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>93522</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>93822</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94122</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>94422</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>94722</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>95022</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>95322</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>95622</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>95922</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>96222</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>96522</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96822</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>97122</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>97422</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>97722</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>98022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>98322</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>98622</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>98922</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>99222</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99522</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>99822</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100122</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100422</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100722</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>101022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'next simulations'!$N$7:$N$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="49360932"/>
+        <c:axId val="10986366"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="49360932"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>time[s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10986366"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="10986366"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>curation rewards for particular voter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49360932"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart312.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>simulation 11</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'next simulations'!$P$7:$P$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>86322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86670</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86970</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87570</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87870</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88470</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88770</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89070</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89370</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89670</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89970</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90270</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90570</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90870</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91170</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91470</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91770</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92070</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>92370</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92670</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92970</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>93270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>93570</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>93870</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>94170</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>94470</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>94770</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>95070</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>95370</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95670</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>95970</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>96270</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>96570</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>96870</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>97170</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>97470</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>97770</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>98070</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98370</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>98670</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>98970</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99270</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>99570</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99870</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'next simulations'!$Q$7:$Q$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="19759750"/>
+        <c:axId val="66190128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="19759750"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>time[s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66190128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66190128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>curation rewards for particular voter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19759750"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8717,9 +9794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>398160</xdr:colOff>
+      <xdr:colOff>397800</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8728,7 +9805,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17254440" y="3610440"/>
-        <a:ext cx="15370560" cy="2219040"/>
+        <a:ext cx="15370200" cy="2218680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8747,9 +9824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>384840</xdr:colOff>
+      <xdr:colOff>384480</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8758,7 +9835,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17207280" y="5943960"/>
-        <a:ext cx="15404400" cy="1998720"/>
+        <a:ext cx="15404040" cy="1998360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8777,9 +9854,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>402120</xdr:colOff>
+      <xdr:colOff>401760</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8788,7 +9865,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9752760" y="3629520"/>
-        <a:ext cx="7365600" cy="2169720"/>
+        <a:ext cx="7365240" cy="2169360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8807,9 +9884,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>396360</xdr:colOff>
+      <xdr:colOff>396000</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8818,7 +9895,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9732960" y="5887080"/>
-        <a:ext cx="7379640" cy="2055960"/>
+        <a:ext cx="7379280" cy="2055600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8837,9 +9914,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>830880</xdr:colOff>
+      <xdr:colOff>830520</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8848,7 +9925,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9744840" y="9552600"/>
-        <a:ext cx="17205480" cy="2457720"/>
+        <a:ext cx="17205120" cy="2457360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8867,9 +9944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>773640</xdr:colOff>
+      <xdr:colOff>773280</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8878,7 +9955,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9743400" y="12296880"/>
-        <a:ext cx="8562960" cy="2474640"/>
+        <a:ext cx="8562600" cy="2474280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8897,9 +9974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>727560</xdr:colOff>
+      <xdr:colOff>727200</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8908,7 +9985,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9747000" y="15104520"/>
-        <a:ext cx="8513280" cy="3238200"/>
+        <a:ext cx="8512920" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8925,16 +10002,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>779760</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>14040</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>659160</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>806760</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8942,8 +10019,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9837360" y="4798800"/>
-        <a:ext cx="8007120" cy="1844280"/>
+        <a:off x="12987720" y="6818040"/>
+        <a:ext cx="8920440" cy="1843920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8955,16 +10032,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>794160</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>14400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>648360</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>24120</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8972,8 +10049,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9851760" y="6798600"/>
-        <a:ext cx="7981920" cy="1805400"/>
+        <a:off x="12988080" y="8931960"/>
+        <a:ext cx="8950320" cy="1805040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8985,16 +10062,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>3600</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>787320</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>695160</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>745920</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9002,8 +10079,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9873720" y="8802360"/>
-        <a:ext cx="8006760" cy="1886400"/>
+        <a:off x="12948120" y="10878840"/>
+        <a:ext cx="8899200" cy="1886040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9015,16 +10092,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>790200</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>797400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>675360</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>807120</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9032,12 +10109,72 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9847800" y="10838880"/>
-        <a:ext cx="8012880" cy="2125080"/>
+        <a:off x="12958200" y="12981240"/>
+        <a:ext cx="8950320" cy="2124720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>797400</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>111960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>665280</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>41400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12958200" y="15352920"/>
+        <a:ext cx="8808480" cy="2368080"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8280</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>53280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>655200</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12981960" y="18057960"/>
+        <a:ext cx="8774640" cy="2393640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14917,10 +16054,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
+      <selection pane="topLeft" activeCell="R14" activeCellId="0" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14933,11 +16070,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.97"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -14958,6 +16099,17 @@
         <v>34</v>
       </c>
       <c r="K3" s="1"/>
+      <c r="M3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="P3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="T3" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -14976,6 +16128,17 @@
         <v>9</v>
       </c>
       <c r="K4" s="1"/>
+      <c r="M4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="P4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="T4" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
@@ -15002,15 +16165,43 @@
       <c r="K5" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="M5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O6" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="T6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>1719</v>
+        <v>1731</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>805</v>
@@ -15019,10 +16210,10 @@
         <v>90300</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1719</v>
+        <v>1731</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>805</v>
@@ -15031,15 +16222,34 @@
         <v>90300</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>86322</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>1579</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>86322</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>1464</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>3438</v>
+        <v>3450</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>805</v>
@@ -15048,10 +16258,10 @@
         <v>90600</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>3438</v>
+        <v>3450</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>805</v>
@@ -15060,21 +16270,24 @@
         <v>90600</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+        <v>805</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>86622</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>86334</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>1464</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>5157</v>
+        <v>5169</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>805</v>
@@ -15083,10 +16296,10 @@
         <v>90900</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>5157</v>
+        <v>5169</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>805</v>
@@ -15095,22 +16308,27 @@
         <v>90900</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
+        <v>805</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>86922</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>86346</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>1464</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>6876</v>
+        <v>6888</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>805</v>
@@ -15119,10 +16337,10 @@
         <v>91200</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>6876</v>
+        <v>6888</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>805</v>
@@ -15131,22 +16349,27 @@
         <v>91200</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
+        <v>805</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>87222</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>86358</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>1464</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>8595</v>
+        <v>8607</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>805</v>
@@ -15155,10 +16378,10 @@
         <v>91500</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>8595</v>
+        <v>8607</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>805</v>
@@ -15167,12 +16390,33 @@
         <v>91500</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>806</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>87522</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>86370</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>1464</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>10314</v>
+        <v>10326</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>805</v>
@@ -15181,10 +16425,10 @@
         <v>91800</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>10314</v>
+        <v>10326</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>805</v>
@@ -15193,15 +16437,34 @@
         <v>91800</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O12" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>87822</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>86670</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T12" s="15" t="s">
         <v>40</v>
       </c>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>12033</v>
+        <v>12045</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>805</v>
@@ -15210,10 +16473,10 @@
         <v>92100</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>12033</v>
+        <v>12045</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>805</v>
@@ -15222,15 +16485,34 @@
         <v>92100</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>88122</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>86970</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>13752</v>
+        <v>13764</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>805</v>
@@ -15239,10 +16521,10 @@
         <v>92400</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>13752</v>
+        <v>13764</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>805</v>
@@ -15251,21 +16533,24 @@
         <v>92400</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+        <v>805</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>88422</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>87270</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>732</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>15471</v>
+        <v>15483</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>805</v>
@@ -15274,10 +16559,10 @@
         <v>92700</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>15471</v>
+        <v>15483</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>805</v>
@@ -15286,22 +16571,27 @@
         <v>92700</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
+        <v>805</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>88722</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>87570</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>17190</v>
+        <v>17202</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>805</v>
@@ -15310,10 +16600,10 @@
         <v>93000</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>17190</v>
+        <v>17202</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>805</v>
@@ -15322,22 +16612,27 @@
         <v>93000</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
+        <v>805</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>89022</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>87870</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>18909</v>
+        <v>18921</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>805</v>
@@ -15346,10 +16641,10 @@
         <v>93300</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>18909</v>
+        <v>18921</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>805</v>
@@ -15358,12 +16653,33 @@
         <v>93300</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>806</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>89322</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>88170</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>20628</v>
+        <v>20640</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>805</v>
@@ -15372,10 +16688,10 @@
         <v>93600</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>20628</v>
+        <v>20640</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>805</v>
@@ -15384,15 +16700,34 @@
         <v>93600</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>89622</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>88470</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>22347</v>
+        <v>22359</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>805</v>
@@ -15401,10 +16736,10 @@
         <v>93900</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>22347</v>
+        <v>22359</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>805</v>
@@ -15413,15 +16748,34 @@
         <v>93900</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>89922</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>88770</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>24066</v>
+        <v>24078</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>805</v>
@@ -15430,10 +16784,10 @@
         <v>94200</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>24066</v>
+        <v>24078</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>805</v>
@@ -15442,21 +16796,24 @@
         <v>94200</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
+        <v>805</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>90222</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>89070</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>732</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>25785</v>
+        <v>25797</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>805</v>
@@ -15465,10 +16822,10 @@
         <v>94500</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>25785</v>
+        <v>25797</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>805</v>
@@ -15477,22 +16834,27 @@
         <v>94500</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
+        <v>805</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>90522</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>89370</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>27504</v>
+        <v>27516</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>805</v>
@@ -15501,10 +16863,10 @@
         <v>94800</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>27504</v>
+        <v>27516</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>805</v>
@@ -15513,22 +16875,27 @@
         <v>94800</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
+        <v>805</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>90822</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>89670</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>29223</v>
+        <v>29235</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>805</v>
@@ -15537,10 +16904,10 @@
         <v>95100</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>29223</v>
+        <v>29235</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>805</v>
@@ -15549,12 +16916,33 @@
         <v>95100</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>806</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>91122</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>89970</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>30942</v>
+        <v>30954</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>805</v>
@@ -15563,10 +16951,10 @@
         <v>95400</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>30942</v>
+        <v>30954</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>805</v>
@@ -15575,15 +16963,34 @@
         <v>95400</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>91422</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>90270</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>32661</v>
+        <v>32673</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>805</v>
@@ -15592,10 +16999,10 @@
         <v>95700</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>32661</v>
+        <v>32673</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>805</v>
@@ -15604,15 +17011,34 @@
         <v>95700</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O25" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>91722</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>90570</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T25" s="15" t="s">
         <v>44</v>
       </c>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>34380</v>
+        <v>34392</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>805</v>
@@ -15621,10 +17047,10 @@
         <v>96000</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>34380</v>
+        <v>34392</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>805</v>
@@ -15633,21 +17059,24 @@
         <v>96000</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
+        <v>805</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>92022</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>90870</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>732</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>36099</v>
+        <v>36111</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>805</v>
@@ -15656,10 +17085,10 @@
         <v>96300</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>36099</v>
+        <v>36111</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>805</v>
@@ -15668,22 +17097,27 @@
         <v>96300</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
+        <v>805</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>92322</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>91170</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>37818</v>
+        <v>37830</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>805</v>
@@ -15692,10 +17126,10 @@
         <v>96600</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>37818</v>
+        <v>37830</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>805</v>
@@ -15704,22 +17138,27 @@
         <v>96600</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>806</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
+        <v>805</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>92622</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>91470</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>39537</v>
+        <v>39549</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>805</v>
@@ -15728,10 +17167,10 @@
         <v>96900</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>39537</v>
+        <v>39549</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>805</v>
@@ -15740,12 +17179,33 @@
         <v>96900</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>806</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>92922</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>91770</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>41256</v>
+        <v>41268</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>805</v>
@@ -15754,10 +17214,10 @@
         <v>97200</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>41256</v>
+        <v>41268</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>805</v>
@@ -15766,12 +17226,34 @@
         <v>97200</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>806</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>93222</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>92070</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>42975</v>
+        <v>42987</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>805</v>
@@ -15780,10 +17262,10 @@
         <v>97500</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>42975</v>
+        <v>42987</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>805</v>
@@ -15792,12 +17274,34 @@
         <v>97500</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>806</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>93522</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>92370</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>44694</v>
+        <v>44706</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>805</v>
@@ -15806,10 +17310,10 @@
         <v>97800</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>44694</v>
+        <v>44706</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>805</v>
@@ -15818,12 +17322,32 @@
         <v>97800</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>806</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>93822</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>92670</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>46413</v>
+        <v>46425</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>805</v>
@@ -15832,10 +17356,10 @@
         <v>98100</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>46413</v>
+        <v>46425</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>805</v>
@@ -15844,12 +17368,27 @@
         <v>98100</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>94122</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>92970</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>48132</v>
+        <v>48144</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>805</v>
@@ -15858,10 +17397,10 @@
         <v>98400</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>48132</v>
+        <v>48144</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>805</v>
@@ -15870,12 +17409,27 @@
         <v>98400</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>94422</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>93270</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>49851</v>
+        <v>49863</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>805</v>
@@ -15884,10 +17438,10 @@
         <v>98700</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>49851</v>
+        <v>49863</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>805</v>
@@ -15896,12 +17450,33 @@
         <v>98700</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>806</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>94722</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>93570</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>51570</v>
+        <v>51582</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>805</v>
@@ -15910,10 +17485,10 @@
         <v>99000</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>51570</v>
+        <v>51582</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>805</v>
@@ -15922,12 +17497,34 @@
         <v>99000</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>806</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>95022</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>93870</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>53289</v>
+        <v>53301</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>805</v>
@@ -15936,10 +17533,10 @@
         <v>99300</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>53289</v>
+        <v>53301</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>805</v>
@@ -15948,12 +17545,33 @@
         <v>99300</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>806</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>95322</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>94170</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="T37" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>55008</v>
+        <v>55020</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>805</v>
@@ -15962,10 +17580,10 @@
         <v>99600</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>55008</v>
+        <v>55020</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>805</v>
@@ -15974,12 +17592,24 @@
         <v>99600</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>95622</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>94470</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>56727</v>
+        <v>56739</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>805</v>
@@ -15988,10 +17618,10 @@
         <v>99900</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>56727</v>
+        <v>56739</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>805</v>
@@ -16000,12 +17630,24 @@
         <v>99900</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>95922</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>94770</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>58446</v>
+        <v>58458</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>805</v>
@@ -16014,10 +17656,10 @@
         <v>100200</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>58446</v>
+        <v>58458</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>805</v>
@@ -16026,12 +17668,24 @@
         <v>100200</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>96222</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>95070</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>60165</v>
+        <v>60177</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>805</v>
@@ -16040,10 +17694,10 @@
         <v>100500</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>60165</v>
+        <v>60177</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>805</v>
@@ -16052,12 +17706,24 @@
         <v>100500</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>96522</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>95370</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>61884</v>
+        <v>61896</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>805</v>
@@ -16066,10 +17732,10 @@
         <v>100800</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>61884</v>
+        <v>61896</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>805</v>
@@ -16078,12 +17744,24 @@
         <v>100800</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>96822</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>95670</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>63603</v>
+        <v>63615</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>805</v>
@@ -16092,10 +17770,10 @@
         <v>101100</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>63603</v>
+        <v>63615</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>805</v>
@@ -16104,12 +17782,24 @@
         <v>101100</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>97122</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>95970</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>65322</v>
+        <v>65334</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>805</v>
@@ -16118,10 +17808,10 @@
         <v>101400</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>65322</v>
+        <v>65334</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>805</v>
@@ -16130,12 +17820,24 @@
         <v>101400</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>97422</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>96270</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>67041</v>
+        <v>67053</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>805</v>
@@ -16144,10 +17846,10 @@
         <v>101700</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>67041</v>
+        <v>67053</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>805</v>
@@ -16156,12 +17858,24 @@
         <v>101700</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>97722</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>96570</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>68760</v>
+        <v>68772</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>805</v>
@@ -16170,10 +17884,10 @@
         <v>102000</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>68760</v>
+        <v>68772</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>805</v>
@@ -16182,12 +17896,24 @@
         <v>102000</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>98022</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>96870</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>70479</v>
+        <v>70491</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>805</v>
@@ -16196,10 +17922,10 @@
         <v>102300</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>70479</v>
+        <v>70491</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>805</v>
@@ -16208,12 +17934,24 @@
         <v>102300</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>98322</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>97170</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>72198</v>
+        <v>72210</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>805</v>
@@ -16222,10 +17960,10 @@
         <v>102600</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>72198</v>
+        <v>72210</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>805</v>
@@ -16234,12 +17972,24 @@
         <v>102600</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>98622</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>97470</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>73917</v>
+        <v>73929</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>805</v>
@@ -16248,10 +17998,10 @@
         <v>102900</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>73917</v>
+        <v>73929</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>805</v>
@@ -16260,12 +18010,24 @@
         <v>102900</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>98922</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>97770</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>75636</v>
+        <v>75648</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>805</v>
@@ -16274,10 +18036,10 @@
         <v>103200</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>75636</v>
+        <v>75648</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>805</v>
@@ -16286,12 +18048,24 @@
         <v>103200</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>99222</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>98070</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>77355</v>
+        <v>77367</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>805</v>
@@ -16300,10 +18074,10 @@
         <v>103500</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>77355</v>
+        <v>77367</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>805</v>
@@ -16312,12 +18086,24 @@
         <v>103500</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>99522</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>98370</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>79074</v>
+        <v>79086</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>805</v>
@@ -16326,10 +18112,10 @@
         <v>103800</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>79074</v>
+        <v>79086</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>805</v>
@@ -16338,12 +18124,24 @@
         <v>103800</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>99822</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>98670</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>80793</v>
+        <v>80805</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>805</v>
@@ -16352,10 +18150,10 @@
         <v>104100</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>80793</v>
+        <v>80805</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>805</v>
@@ -16364,12 +18162,24 @@
         <v>104100</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>100122</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>98970</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>82512</v>
+        <v>82524</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>805</v>
@@ -16378,10 +18188,10 @@
         <v>104400</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>82512</v>
+        <v>82524</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>805</v>
@@ -16390,12 +18200,24 @@
         <v>104400</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>100422</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>99270</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>84231</v>
+        <v>84243</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>805</v>
@@ -16404,10 +18226,10 @@
         <v>104700</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>84231</v>
+        <v>84243</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>805</v>
@@ -16416,12 +18238,24 @@
         <v>104700</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>100722</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>99570</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>732</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>85950</v>
+        <v>85962</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>805</v>
@@ -16430,10 +18264,10 @@
         <v>105000</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>85950</v>
+        <v>85962</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>805</v>
@@ -16442,23 +18276,65 @@
         <v>105000</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>806</v>
+        <v>805</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>101022</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>99870</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K57" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K58" s="4" t="n">
+        <f aca="false">SUM(K7:K56)</f>
+        <v>40250</v>
+      </c>
+      <c r="N58" s="4" t="n">
+        <f aca="false">SUM(N7:N56)</f>
+        <v>40240</v>
+      </c>
+      <c r="Q58" s="4" t="n">
+        <f aca="false">SUM(Q7:Q56)</f>
+        <v>40260</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="O9:V9"/>
-    <mergeCell ref="O10:V10"/>
-    <mergeCell ref="O14:U14"/>
-    <mergeCell ref="O15:V15"/>
-    <mergeCell ref="O16:V16"/>
-    <mergeCell ref="O20:U20"/>
-    <mergeCell ref="O21:V21"/>
-    <mergeCell ref="O22:V22"/>
-    <mergeCell ref="O26:U26"/>
-    <mergeCell ref="O27:V27"/>
-    <mergeCell ref="O28:V28"/>
+  <mergeCells count="17">
+    <mergeCell ref="T5:Z5"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="T7:AA7"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="T17:Z17"/>
+    <mergeCell ref="T18:AA18"/>
+    <mergeCell ref="T19:AA19"/>
+    <mergeCell ref="T23:Z23"/>
+    <mergeCell ref="T24:AA24"/>
+    <mergeCell ref="T25:AA25"/>
+    <mergeCell ref="T29:Z29"/>
+    <mergeCell ref="T30:AA30"/>
+    <mergeCell ref="T32:AA32"/>
+    <mergeCell ref="T35:Z35"/>
+    <mergeCell ref="T36:AA36"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
